--- a/biology/Botanique/Colchique_des_Alpes/Colchique_des_Alpes.xlsx
+++ b/biology/Botanique/Colchique_des_Alpes/Colchique_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colchicum alpinum
 Le colchique des Alpes (Colchicum alpinum) est une espèce de plante vivace de la famille des Colchicacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique des Alpes ressemble à une version miniature du Colchique d'automne.
 La floraison a lieu de juillet à août (septembre). Du petit corme ovoïde (1 sur 2 cm) émergent une ou deux fleurs.
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique des Alpes pousse sur les prairies alpines relativement sèches en sol acide, à une altitude de 600 à 1800 (2000) m.
 C'est une plante rare qu’on rencontre çà et là dans les Alpes occidentales en France, en Suisse (Valais et Tessin) et en Italie, ainsi que dans les Apennins, en Corse et en Sardaigne. Elle pousse en relative abondance dans le Val d'Aoste.
@@ -582,7 +598,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colchique des Alpes est une plante de collection, difficile à cultiver. Il déteste le calcaire et ne fleurit en général pas bien en plaine.
 L’espèce apparentée, le colchique de Corse (Colchicum corsicum), qui semble plus facile à cultiver, est proposée par quelques bulbiculteurs spécialisés.
@@ -619,7 +637,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>G. Bonnier &amp; G. de Layens, Flore complète de la France, de la Suisse et de la Belgique, Librairie générale de l'enseignement, Paris, 1948
 A. Huxley, Alpenflora, Mousault,  (ISBN 90-226-0065-3)
